--- a/xlsx/美国国徽_intext.xlsx
+++ b/xlsx/美国国徽_intext.xlsx
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E5%90%88%E7%9C%BE%E5%9C%8B</t>
   </si>
   <si>
-    <t>美利堅合眾國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国国徽</t>
+    <t>美利坚合众国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国国徽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E9%A0%AD%E6%B5%B7%E9%B5%B0</t>
   </si>
   <si>
-    <t>白頭海鵰</t>
+    <t>白头海鵰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%84%E6%A6%84</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%A9%E7%89%B9%E8%A8%B1%E8%AD%89</t>
   </si>
   <si>
-    <t>專利特許證</t>
+    <t>专利特许证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%BF%E9%B7%B9</t>
   </si>
   <si>
-    <t>禿鷹</t>
+    <t>秃鹰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%84%E6%AC%96%E6%9E%9D%E8%AB%8B%E9%A1%98%E6%9B%B8</t>
   </si>
   <si>
-    <t>橄欖枝請願書</t>
+    <t>橄榄枝请愿书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E6%96%87</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%83%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>美國參議院</t>
+    <t>美国参议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>美國獨立宣言</t>
+    <t>美国独立宣言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%B8%9D%E4%B9%8B%E7%9C%BC</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%E6%98%9F</t>
   </si>
   <si>
-    <t>大衛星</t>
+    <t>大卫星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E6%B4%B2%E9%A2%98%E7%9B%AE</t>
@@ -311,13 +311,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國會員國列表</t>
+    <t>联合国会员国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7%E5%9B%BD%E5%BE%BD</t>
@@ -371,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E%E5%9C%8B%E5%BE%BD</t>
   </si>
   <si>
-    <t>玻利維亞國徽</t>
+    <t>玻利维亚国徽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E5%85%B9%E5%9B%BD%E5%BE%BD</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9C%8B%E5%9C%8B%E5%BE%BD</t>
   </si>
   <si>
-    <t>多明尼加共和國國徽</t>
+    <t>多明尼加共和国国徽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%85%8B%E5%9B%BD%E5%BE%BD</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E7%B4%8D%E9%81%94%E5%9C%8B%E5%BE%BD</t>
   </si>
   <si>
-    <t>格林納達國徽</t>
+    <t>格林纳达国徽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%AD%E4%BA%9A%E9%82%A3%E5%9B%BD%E5%BE%BD</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4%E5%9C%8B%E5%BE%BD</t>
   </si>
   <si>
-    <t>古巴國徽</t>
+    <t>古巴国徽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0%E5%9B%BD%E5%BE%BD</t>
@@ -539,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%AD%E6%8B%89%E5%9C%8B%E5%BE%BD</t>
   </si>
   <si>
-    <t>安圭拉國徽</t>
+    <t>安圭拉国徽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E5%A4%A7%E5%9B%BD%E5%BE%BD</t>
@@ -551,7 +551,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84%E5%9C%8B%E5%BE%BD</t>
   </si>
   <si>
-    <t>波多黎各國徽</t>
+    <t>波多黎各国徽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E5%85%B0%E5%9B%BD%E5%BE%BD</t>
@@ -563,7 +563,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E6%8B%89%E7%B4%A2%E5%9C%8B%E5%BE%BD</t>
   </si>
   <si>
-    <t>庫拉索國徽</t>
+    <t>库拉索国徽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%9A%AE%E5%9F%83%E5%B0%94%E5%92%8C%E5%AF%86%E5%85%8B%E9%9A%86%E5%9B%BD%E5%BE%BD</t>
